--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,15 +512,29 @@
       <c r="C10" t="str">
         <v>574_迷你菊白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F10" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
         <v>575_迷你菊粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -578,7 +592,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151055515201000</v>
+        <v>01510555152010555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,9 +532,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
+        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -592,7 +635,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510555152010555</v>
+        <v>015105551520105551010111010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -575,9 +575,86 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>518_多头鼠尾 紫色_spray veronica purple_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>15_深紫洋桔梗_Dark Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -635,7 +712,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015105551520105551010111010</v>
+        <v>0151055515201055510101110105101010105510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -651,6 +651,9 @@
       <c r="C27" t="str">
         <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F27" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -712,7 +715,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151055515201055510101110105101010105510100</v>
+        <v>0151055515201055510101110105101010105510101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -652,7 +652,7 @@
         <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F27" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151055515201055510101110105101010105510101</v>
+        <v>01510555152010555101011101051010101055101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -655,9 +655,46 @@
         <v>10</v>
       </c>
     </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>3</v>
+      </c>
+      <c r="C31" t="str">
+        <v>445_冬青_ilex_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>513_松虫草粉白_scabiosa rainbow_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L32"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -715,7 +752,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510555152010555101011101051010101055101010</v>
+        <v>0151055515201055510101110105101010105510101015152000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -686,6 +686,9 @@
       <c r="C31" t="str">
         <v>445_冬青_ilex_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="C32" t="str">
@@ -752,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151055515201055510101110105101010105510101015152000</v>
+        <v>0151055515201055510101110105101010105510101015152080</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -687,7 +687,7 @@
         <v>445_冬青_ilex_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>8</v>
+        <v/>
       </c>
     </row>
     <row r="32">
@@ -755,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151055515201055510101110105101010105510101015152080</v>
+        <v>015105551520105551010111010510101010551010101515200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -687,7 +687,7 @@
         <v>445_冬青_ilex_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -755,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015105551520105551010111010510101010551010101515200</v>
+        <v>0151055515201055510101110105101010105510101015152060</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -694,6 +694,9 @@
       <c r="C32" t="str">
         <v>513_松虫草粉白_scabiosa rainbow_undefined_1bunch</v>
       </c>
+      <c r="F32" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -755,7 +758,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151055515201055510101110105101010105510101015152060</v>
+        <v>0151055515201055510101110105101010105510101015152061</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-11.xlsx
@@ -695,7 +695,7 @@
         <v>513_松虫草粉白_scabiosa rainbow_undefined_1bunch</v>
       </c>
       <c r="F32" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +758,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151055515201055510101110105101010105510101015152061</v>
+        <v>01510555152010555101011101051010101055101010151520615</v>
       </c>
     </row>
   </sheetData>
